--- a/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/TestData.xlsx
+++ b/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="16920" windowHeight="8220" tabRatio="706" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="17220" windowHeight="4296" tabRatio="706" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="People" sheetId="15" r:id="rId14"/>
     <sheet name="AddRecipientEin" sheetId="16" r:id="rId15"/>
     <sheet name="1099MISCdata" sheetId="17" r:id="rId16"/>
+    <sheet name="StateID-Validations" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M27"/>
+  <oleSize ref="A4:I17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="171">
   <si>
     <t>TestCases</t>
   </si>
@@ -451,163 +452,103 @@
     <t>35010-____</t>
   </si>
   <si>
-    <t>Payer phoneno</t>
-  </si>
-  <si>
     <t>1234567891</t>
   </si>
   <si>
-    <t>Edited Payer EIN</t>
-  </si>
-  <si>
-    <t>Edited Payer Address</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Edited Payer City</t>
-  </si>
-  <si>
-    <t>MOBILE</t>
-  </si>
-  <si>
-    <t>Payer Business name</t>
-  </si>
-  <si>
     <t>03/03/2021</t>
   </si>
   <si>
-    <t>201204619</t>
-  </si>
-  <si>
-    <t>Test0226202111828</t>
-  </si>
-  <si>
-    <t>10-4667209</t>
-  </si>
-  <si>
-    <t>Test0226202112509</t>
-  </si>
-  <si>
-    <t>Test0301202194844</t>
-  </si>
-  <si>
-    <t>87-7557056</t>
-  </si>
-  <si>
-    <t>Test0301202195550</t>
-  </si>
-  <si>
-    <t>Test0301202120818</t>
-  </si>
-  <si>
-    <t>67-4423735</t>
-  </si>
-  <si>
-    <t>Test0301202121456</t>
-  </si>
-  <si>
-    <t>Test0301202132503</t>
-  </si>
-  <si>
-    <t>49-2281573</t>
-  </si>
-  <si>
-    <t>Test0301202133143</t>
-  </si>
-  <si>
-    <t>Test0301202142156</t>
-  </si>
-  <si>
-    <t>78-6801865</t>
-  </si>
-  <si>
-    <t>Test0301202142834</t>
-  </si>
-  <si>
-    <t>Test0301202150940</t>
-  </si>
-  <si>
-    <t>30-1806508</t>
-  </si>
-  <si>
-    <t>Test0301202151621</t>
-  </si>
-  <si>
-    <t>Test0301202181646</t>
-  </si>
-  <si>
-    <t>40-2337688</t>
-  </si>
-  <si>
-    <t>Test0301202182324</t>
-  </si>
-  <si>
-    <t>Test0302202195633</t>
-  </si>
-  <si>
-    <t>10-6701409</t>
-  </si>
-  <si>
-    <t>Test03022021100328</t>
-  </si>
-  <si>
     <t>Payer last name</t>
   </si>
   <si>
-    <t>Test0302202134550</t>
-  </si>
-  <si>
     <t>Payer Phone Number</t>
   </si>
   <si>
-    <t>19-2848978</t>
-  </si>
-  <si>
-    <t>Test0302202135309</t>
-  </si>
-  <si>
-    <t>Test0302202143805</t>
-  </si>
-  <si>
-    <t>49-4333342</t>
-  </si>
-  <si>
-    <t>Test0302202144533</t>
-  </si>
-  <si>
-    <t>201204653</t>
-  </si>
-  <si>
-    <t>Test0302202155150</t>
-  </si>
-  <si>
-    <t>24-6178528</t>
-  </si>
-  <si>
-    <t>Test0302202155857</t>
-  </si>
-  <si>
-    <t>Test0302202162617</t>
-  </si>
-  <si>
-    <t>42-050516</t>
-  </si>
-  <si>
-    <t>Test0302202163325</t>
-  </si>
-  <si>
-    <t>Test0302202170806</t>
-  </si>
-  <si>
-    <t>96-3985499</t>
-  </si>
-  <si>
-    <t>Test0302202171514</t>
-  </si>
-  <si>
-    <t>201204654</t>
+    <t>201204660</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Less than 9 digits</t>
+  </si>
+  <si>
+    <t>Greater than 9 digits</t>
+  </si>
+  <si>
+    <t>123456789kk</t>
+  </si>
+  <si>
+    <t>1234567-k2</t>
+  </si>
+  <si>
+    <t>Should have 7 digits and 2 Alphabets</t>
+  </si>
+  <si>
+    <t>Missed hyphen</t>
+  </si>
+  <si>
+    <t>1234567-AA</t>
+  </si>
+  <si>
+    <t>Correct format value has 7 digits and 2 Alphabets</t>
+  </si>
+  <si>
+    <t>Correct format value has 9 digits</t>
+  </si>
+  <si>
+    <t>SS34567-KJ</t>
+  </si>
+  <si>
+    <t>Should have 7 digits,hyphen and 2 Alphabets</t>
+  </si>
+  <si>
+    <t>Test03052021124952</t>
+  </si>
+  <si>
+    <t>51-3476967</t>
+  </si>
+  <si>
+    <t>Test03052021125559</t>
+  </si>
+  <si>
+    <t>Reconsillation details</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>Form count</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Test0305202172125</t>
+  </si>
+  <si>
+    <t>25-3597885</t>
+  </si>
+  <si>
+    <t>Test0305202172737</t>
+  </si>
+  <si>
+    <t>Test0305202174902</t>
+  </si>
+  <si>
+    <t>79-7546968</t>
+  </si>
+  <si>
+    <t>Test0305202175512</t>
+  </si>
+  <si>
+    <t>Test0305202183207</t>
+  </si>
+  <si>
+    <t>80-1825910</t>
+  </si>
+  <si>
+    <t>Test0305202183817</t>
   </si>
 </sst>
 </file>
@@ -1683,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1699,12 +1640,12 @@
     <col min="6" max="16384" style="12" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
@@ -1714,31 +1655,31 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
@@ -1746,7 +1687,7 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -1794,7 +1735,7 @@
         <v>133</v>
       </c>
       <c r="B16" t="n">
-        <v>8.99289659E8</v>
+        <v>2.36894931E8</v>
       </c>
     </row>
     <row r="17">
@@ -1823,15 +1764,141 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="12" width="18.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="21.77734375" collapsed="true"/>
+    <col min="4" max="16384" style="12" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="E1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>123</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1234567891</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>123456789</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/TestData.xlsx
+++ b/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="17220" windowHeight="4296" tabRatio="706" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="16920" windowHeight="8220" tabRatio="706" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <sheet name="StateID-Validations" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A4:I17"/>
+  <oleSize ref="A1:I27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="212">
   <si>
     <t>TestCases</t>
   </si>
@@ -503,15 +503,6 @@
     <t>Should have 7 digits,hyphen and 2 Alphabets</t>
   </si>
   <si>
-    <t>Test03052021124952</t>
-  </si>
-  <si>
-    <t>51-3476967</t>
-  </si>
-  <si>
-    <t>Test03052021125559</t>
-  </si>
-  <si>
     <t>Reconsillation details</t>
   </si>
   <si>
@@ -524,31 +515,163 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Test0305202172125</t>
-  </si>
-  <si>
-    <t>25-3597885</t>
-  </si>
-  <si>
-    <t>Test0305202172737</t>
-  </si>
-  <si>
-    <t>Test0305202174902</t>
-  </si>
-  <si>
-    <t>79-7546968</t>
-  </si>
-  <si>
-    <t>Test0305202175512</t>
-  </si>
-  <si>
-    <t>Test0305202183207</t>
-  </si>
-  <si>
-    <t>80-1825910</t>
-  </si>
-  <si>
-    <t>Test0305202183817</t>
+    <t>Test03082021111834</t>
+  </si>
+  <si>
+    <t>22-7415820</t>
+  </si>
+  <si>
+    <t>Test03082021112444</t>
+  </si>
+  <si>
+    <t>Test0308202172425</t>
+  </si>
+  <si>
+    <t>78-388821_</t>
+  </si>
+  <si>
+    <t>Test0308202173136</t>
+  </si>
+  <si>
+    <t>Test0308202174907</t>
+  </si>
+  <si>
+    <t>Test0308202183215</t>
+  </si>
+  <si>
+    <t>35010-</t>
+  </si>
+  <si>
+    <t>92-2793200</t>
+  </si>
+  <si>
+    <t>Test0308202184002</t>
+  </si>
+  <si>
+    <t>03/15/2021</t>
+  </si>
+  <si>
+    <t>201204734</t>
+  </si>
+  <si>
+    <t>Test0309202195319</t>
+  </si>
+  <si>
+    <t>41-0350344</t>
+  </si>
+  <si>
+    <t>Test0309202195928</t>
+  </si>
+  <si>
+    <t>201204735</t>
+  </si>
+  <si>
+    <t>Test03092021113259</t>
+  </si>
+  <si>
+    <t>75-9272649</t>
+  </si>
+  <si>
+    <t>Test03092021113908</t>
+  </si>
+  <si>
+    <t>Test0309202163649</t>
+  </si>
+  <si>
+    <t>87-9197398</t>
+  </si>
+  <si>
+    <t>Test0309202164307</t>
+  </si>
+  <si>
+    <t>Test0309202170229</t>
+  </si>
+  <si>
+    <t>22-6736069</t>
+  </si>
+  <si>
+    <t>Test0309202170839</t>
+  </si>
+  <si>
+    <t>201204738</t>
+  </si>
+  <si>
+    <t>Test0309202173317</t>
+  </si>
+  <si>
+    <t>61-6703041</t>
+  </si>
+  <si>
+    <t>Test0309202173927</t>
+  </si>
+  <si>
+    <t>201204739</t>
+  </si>
+  <si>
+    <t>Test0309202180316</t>
+  </si>
+  <si>
+    <t>70-1315274</t>
+  </si>
+  <si>
+    <t>Test0309202180928</t>
+  </si>
+  <si>
+    <t>201204740</t>
+  </si>
+  <si>
+    <t>Test03102021102015</t>
+  </si>
+  <si>
+    <t>87-5903288</t>
+  </si>
+  <si>
+    <t>Test03102021102627</t>
+  </si>
+  <si>
+    <t>201204744</t>
+  </si>
+  <si>
+    <t>Test03102021112930</t>
+  </si>
+  <si>
+    <t>30-0946773</t>
+  </si>
+  <si>
+    <t>Test03102021113540</t>
+  </si>
+  <si>
+    <t>Test03102021121907</t>
+  </si>
+  <si>
+    <t>45-1244425</t>
+  </si>
+  <si>
+    <t>Test03102021122517</t>
+  </si>
+  <si>
+    <t>Test0310202154628</t>
+  </si>
+  <si>
+    <t>96-5189304</t>
+  </si>
+  <si>
+    <t>Test0310202155236</t>
+  </si>
+  <si>
+    <t>201204747</t>
+  </si>
+  <si>
+    <t>Test0310202165232</t>
+  </si>
+  <si>
+    <t>96-8531926</t>
+  </si>
+  <si>
+    <t>Test0310202165905</t>
+  </si>
+  <si>
+    <t>201204749</t>
   </si>
 </sst>
 </file>
@@ -1406,9 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1626,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1655,7 +1776,7 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -1663,23 +1784,23 @@
         <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>139</v>
+      <c r="B8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1808,7 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10">
@@ -1735,7 +1856,7 @@
         <v>133</v>
       </c>
       <c r="B16" t="n">
-        <v>2.36894931E8</v>
+        <v>1.62021761E8</v>
       </c>
     </row>
     <row r="17">
@@ -1772,22 +1893,22 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/TestData.xlsx
+++ b/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="270">
   <si>
     <t>TestCases</t>
   </si>
@@ -672,6 +672,180 @@
   </si>
   <si>
     <t>201204749</t>
+  </si>
+  <si>
+    <t>Test03112021122222</t>
+  </si>
+  <si>
+    <t>46-6261343</t>
+  </si>
+  <si>
+    <t>Test03112021122831</t>
+  </si>
+  <si>
+    <t>201204760</t>
+  </si>
+  <si>
+    <t>Test0311202143558</t>
+  </si>
+  <si>
+    <t>96-524994_</t>
+  </si>
+  <si>
+    <t>Test0311202144205</t>
+  </si>
+  <si>
+    <t>Test0311202145327</t>
+  </si>
+  <si>
+    <t>38-3766247</t>
+  </si>
+  <si>
+    <t>Test0311202145932</t>
+  </si>
+  <si>
+    <t>201204762</t>
+  </si>
+  <si>
+    <t>Test0311202154827</t>
+  </si>
+  <si>
+    <t>49-4920679</t>
+  </si>
+  <si>
+    <t>Test0311202155436</t>
+  </si>
+  <si>
+    <t>201204763</t>
+  </si>
+  <si>
+    <t>Test03122021112932</t>
+  </si>
+  <si>
+    <t>97-2080956</t>
+  </si>
+  <si>
+    <t>Test03122021113542</t>
+  </si>
+  <si>
+    <t>201204773</t>
+  </si>
+  <si>
+    <t>Test0312202111102</t>
+  </si>
+  <si>
+    <t>Test0312202114015</t>
+  </si>
+  <si>
+    <t>75-5790047</t>
+  </si>
+  <si>
+    <t>Test0312202114626</t>
+  </si>
+  <si>
+    <t>201204774</t>
+  </si>
+  <si>
+    <t>Test0312202125315</t>
+  </si>
+  <si>
+    <t>53-0701817</t>
+  </si>
+  <si>
+    <t>Test0312202125924</t>
+  </si>
+  <si>
+    <t>Test0312202135521</t>
+  </si>
+  <si>
+    <t>69-7341572</t>
+  </si>
+  <si>
+    <t>Test0312202140129</t>
+  </si>
+  <si>
+    <t>201204775</t>
+  </si>
+  <si>
+    <t>Test0312202145645</t>
+  </si>
+  <si>
+    <t>38-5681801</t>
+  </si>
+  <si>
+    <t>Test0312202150254</t>
+  </si>
+  <si>
+    <t>201204776</t>
+  </si>
+  <si>
+    <t>Test0312202153149</t>
+  </si>
+  <si>
+    <t>38-2832699</t>
+  </si>
+  <si>
+    <t>Test0312202153800</t>
+  </si>
+  <si>
+    <t>201204777</t>
+  </si>
+  <si>
+    <t>Test0312202162542</t>
+  </si>
+  <si>
+    <t>25-0761030</t>
+  </si>
+  <si>
+    <t>Test0312202163153</t>
+  </si>
+  <si>
+    <t>201204778</t>
+  </si>
+  <si>
+    <t>Test0312202170743</t>
+  </si>
+  <si>
+    <t>52-8498274</t>
+  </si>
+  <si>
+    <t>Test0312202171351</t>
+  </si>
+  <si>
+    <t>Test0312202173211</t>
+  </si>
+  <si>
+    <t>38-1799939</t>
+  </si>
+  <si>
+    <t>Test0312202173822</t>
+  </si>
+  <si>
+    <t>201204779</t>
+  </si>
+  <si>
+    <t>Test0312202181514</t>
+  </si>
+  <si>
+    <t>35-2956088</t>
+  </si>
+  <si>
+    <t>Test0312202182121</t>
+  </si>
+  <si>
+    <t>201204780</t>
+  </si>
+  <si>
+    <t>Test0312202190806</t>
+  </si>
+  <si>
+    <t>74-2042568</t>
+  </si>
+  <si>
+    <t>Test0312202191417</t>
+  </si>
+  <si>
+    <t>201204782</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1950,7 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4">
@@ -1784,7 +1958,7 @@
         <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
@@ -1792,7 +1966,7 @@
         <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -1808,7 +1982,7 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
@@ -1856,7 +2030,7 @@
         <v>133</v>
       </c>
       <c r="B16" t="n">
-        <v>1.62021761E8</v>
+        <v>9.01864257E8</v>
       </c>
     </row>
     <row r="17">

--- a/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/TestData.xlsx
+++ b/Demo_working/Tax1099Automation-master/Demo_working/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="16920" windowHeight="8220" tabRatio="706" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="17220" windowHeight="4176" tabRatio="706" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <sheet name="StateID-Validations" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I27"/>
+  <oleSize ref="A1:M13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="946">
   <si>
     <t>TestCases</t>
   </si>
@@ -428,9 +428,6 @@
     <t>ClientRecipientId</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
     <t>Box1 value</t>
   </si>
   <si>
@@ -455,18 +452,12 @@
     <t>1234567891</t>
   </si>
   <si>
-    <t>03/03/2021</t>
-  </si>
-  <si>
     <t>Payer last name</t>
   </si>
   <si>
     <t>Payer Phone Number</t>
   </si>
   <si>
-    <t>201204660</t>
-  </si>
-  <si>
     <t>GA</t>
   </si>
   <si>
@@ -515,337 +506,2374 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Test03082021111834</t>
-  </si>
-  <si>
-    <t>22-7415820</t>
-  </si>
-  <si>
-    <t>Test03082021112444</t>
-  </si>
-  <si>
-    <t>Test0308202172425</t>
-  </si>
-  <si>
-    <t>78-388821_</t>
-  </si>
-  <si>
-    <t>Test0308202173136</t>
-  </si>
-  <si>
-    <t>Test0308202174907</t>
-  </si>
-  <si>
-    <t>Test0308202183215</t>
+    <t>03/28/2021</t>
+  </si>
+  <si>
+    <t>201204989</t>
+  </si>
+  <si>
+    <t>Test0321202170311</t>
+  </si>
+  <si>
+    <t>37-5245487</t>
+  </si>
+  <si>
+    <t>Test0321202170849</t>
+  </si>
+  <si>
+    <t>41496</t>
+  </si>
+  <si>
+    <t>Test0321202173204</t>
+  </si>
+  <si>
+    <t>23-0141860</t>
+  </si>
+  <si>
+    <t>Test0321202173811</t>
+  </si>
+  <si>
+    <t>10284</t>
+  </si>
+  <si>
+    <t>201204991</t>
+  </si>
+  <si>
+    <t>Test0321202181543</t>
+  </si>
+  <si>
+    <t>97-1386840</t>
+  </si>
+  <si>
+    <t>Test0321202182153</t>
+  </si>
+  <si>
+    <t>79547</t>
+  </si>
+  <si>
+    <t>201204992</t>
+  </si>
+  <si>
+    <t>Test0321202190125</t>
+  </si>
+  <si>
+    <t>58-0960365</t>
+  </si>
+  <si>
+    <t>Test0321202190732</t>
+  </si>
+  <si>
+    <t>73859</t>
+  </si>
+  <si>
+    <t>Test0321202192927</t>
+  </si>
+  <si>
+    <t>15-1490148</t>
+  </si>
+  <si>
+    <t>Test0321202193534</t>
+  </si>
+  <si>
+    <t>48367</t>
+  </si>
+  <si>
+    <t>201204993</t>
+  </si>
+  <si>
+    <t>Test03212021100001</t>
+  </si>
+  <si>
+    <t>13-2283442</t>
+  </si>
+  <si>
+    <t>Test03212021100611</t>
+  </si>
+  <si>
+    <t>18429</t>
+  </si>
+  <si>
+    <t>201204994</t>
+  </si>
+  <si>
+    <t>Test03212021103411</t>
+  </si>
+  <si>
+    <t>67-5425523</t>
+  </si>
+  <si>
+    <t>Test03212021104023</t>
+  </si>
+  <si>
+    <t>35891</t>
+  </si>
+  <si>
+    <t>201204995</t>
+  </si>
+  <si>
+    <t>Test03212021111232</t>
+  </si>
+  <si>
+    <t>70-7613559</t>
+  </si>
+  <si>
+    <t>Test03212021111840</t>
+  </si>
+  <si>
+    <t>64341</t>
+  </si>
+  <si>
+    <t>201204996</t>
+  </si>
+  <si>
+    <t>Test03212021114802</t>
+  </si>
+  <si>
+    <t>33-9353800</t>
+  </si>
+  <si>
+    <t>Test03212021115413</t>
+  </si>
+  <si>
+    <t>55272</t>
+  </si>
+  <si>
+    <t>201204997</t>
+  </si>
+  <si>
+    <t>Test03222021122253</t>
+  </si>
+  <si>
+    <t>72-1208611</t>
+  </si>
+  <si>
+    <t>Test03222021122903</t>
+  </si>
+  <si>
+    <t>94650</t>
+  </si>
+  <si>
+    <t>Test03222021124436</t>
+  </si>
+  <si>
+    <t>51-3601794</t>
+  </si>
+  <si>
+    <t>Test03222021125044</t>
+  </si>
+  <si>
+    <t>83857</t>
+  </si>
+  <si>
+    <t>54-5383792</t>
+  </si>
+  <si>
+    <t>Test03222021125653</t>
+  </si>
+  <si>
+    <t>72436</t>
+  </si>
+  <si>
+    <t>201204998</t>
+  </si>
+  <si>
+    <t>Test0322202112509</t>
+  </si>
+  <si>
+    <t>87-4441231</t>
+  </si>
+  <si>
+    <t>Test0322202113118</t>
+  </si>
+  <si>
+    <t>36845</t>
+  </si>
+  <si>
+    <t>201204999</t>
+  </si>
+  <si>
+    <t>Test0322202115523</t>
+  </si>
+  <si>
+    <t>11-8547905</t>
+  </si>
+  <si>
+    <t>Test0322202120132</t>
+  </si>
+  <si>
+    <t>65502</t>
+  </si>
+  <si>
+    <t>201205000</t>
+  </si>
+  <si>
+    <t>Test0322202194433</t>
+  </si>
+  <si>
+    <t>65-9096205</t>
+  </si>
+  <si>
+    <t>Test0322202195045</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>201205001</t>
+  </si>
+  <si>
+    <t>Test03222021102313</t>
+  </si>
+  <si>
+    <t>49-2208403</t>
+  </si>
+  <si>
+    <t>Test03222021102924</t>
+  </si>
+  <si>
+    <t>25762</t>
+  </si>
+  <si>
+    <t>201205002</t>
+  </si>
+  <si>
+    <t>Test03222021110332</t>
+  </si>
+  <si>
+    <t>57-7958739</t>
+  </si>
+  <si>
+    <t>Test03222021110940</t>
+  </si>
+  <si>
+    <t>57755</t>
+  </si>
+  <si>
+    <t>201205003</t>
+  </si>
+  <si>
+    <t>Test03222021114655</t>
+  </si>
+  <si>
+    <t>59-6546253</t>
+  </si>
+  <si>
+    <t>Test03222021115303</t>
+  </si>
+  <si>
+    <t>58290</t>
+  </si>
+  <si>
+    <t>201205004</t>
+  </si>
+  <si>
+    <t>Test03222021122342</t>
+  </si>
+  <si>
+    <t>77-379885_</t>
+  </si>
+  <si>
+    <t>Test03222021122951</t>
+  </si>
+  <si>
+    <t>20728</t>
+  </si>
+  <si>
+    <t>Test03222021124855</t>
+  </si>
+  <si>
+    <t>67-2011537</t>
+  </si>
+  <si>
+    <t>Test03222021125503</t>
+  </si>
+  <si>
+    <t>5779</t>
+  </si>
+  <si>
+    <t>201205005</t>
+  </si>
+  <si>
+    <t>Test0322202112232</t>
+  </si>
+  <si>
+    <t>67-2888741</t>
+  </si>
+  <si>
+    <t>Test0322202112841</t>
+  </si>
+  <si>
+    <t>95252</t>
+  </si>
+  <si>
+    <t>Test0322202114143</t>
+  </si>
+  <si>
+    <t>80-641838_</t>
+  </si>
+  <si>
+    <t>Test0322202114752</t>
+  </si>
+  <si>
+    <t>20986</t>
+  </si>
+  <si>
+    <t>201205006</t>
+  </si>
+  <si>
+    <t>Test0322202141833</t>
+  </si>
+  <si>
+    <t>47-6350859</t>
+  </si>
+  <si>
+    <t>Test0322202142441</t>
+  </si>
+  <si>
+    <t>91709</t>
+  </si>
+  <si>
+    <t>201205007</t>
+  </si>
+  <si>
+    <t>Test0322202150355</t>
+  </si>
+  <si>
+    <t>62-7436447</t>
+  </si>
+  <si>
+    <t>Test0322202151031</t>
+  </si>
+  <si>
+    <t>45637</t>
+  </si>
+  <si>
+    <t>Test0322202155131</t>
+  </si>
+  <si>
+    <t>46-4857173</t>
+  </si>
+  <si>
+    <t>Test0322202155739</t>
+  </si>
+  <si>
+    <t>84666</t>
+  </si>
+  <si>
+    <t>201205011</t>
+  </si>
+  <si>
+    <t>Test0322202172818</t>
+  </si>
+  <si>
+    <t>54-4779984</t>
+  </si>
+  <si>
+    <t>Test0322202173425</t>
+  </si>
+  <si>
+    <t>27538</t>
+  </si>
+  <si>
+    <t>201205012</t>
+  </si>
+  <si>
+    <t>Test03232021100721</t>
+  </si>
+  <si>
+    <t>56-8137344</t>
+  </si>
+  <si>
+    <t>Test03232021101351</t>
+  </si>
+  <si>
+    <t>35265</t>
+  </si>
+  <si>
+    <t>201205018</t>
+  </si>
+  <si>
+    <t>Test03232021103623</t>
+  </si>
+  <si>
+    <t>91-6409363</t>
+  </si>
+  <si>
+    <t>Test03232021104229</t>
+  </si>
+  <si>
+    <t>70071</t>
+  </si>
+  <si>
+    <t>201205019</t>
+  </si>
+  <si>
+    <t>Test03232021113838</t>
+  </si>
+  <si>
+    <t>38-3195741</t>
+  </si>
+  <si>
+    <t>Test03232021114445</t>
+  </si>
+  <si>
+    <t>91889</t>
+  </si>
+  <si>
+    <t>201205020</t>
+  </si>
+  <si>
+    <t>Test03232021121000</t>
+  </si>
+  <si>
+    <t>68-0612131</t>
+  </si>
+  <si>
+    <t>Test03232021121607</t>
+  </si>
+  <si>
+    <t>27598</t>
+  </si>
+  <si>
+    <t>201205022</t>
+  </si>
+  <si>
+    <t>Test03232021124909</t>
+  </si>
+  <si>
+    <t>88-1201634</t>
+  </si>
+  <si>
+    <t>Test03232021125515</t>
+  </si>
+  <si>
+    <t>36428</t>
+  </si>
+  <si>
+    <t>201205023</t>
+  </si>
+  <si>
+    <t>Test0323202113733</t>
+  </si>
+  <si>
+    <t>28-6987994</t>
+  </si>
+  <si>
+    <t>Test0323202114341</t>
+  </si>
+  <si>
+    <t>2160</t>
+  </si>
+  <si>
+    <t>201205024</t>
+  </si>
+  <si>
+    <t>Test0323202124330</t>
+  </si>
+  <si>
+    <t>72-5137311</t>
+  </si>
+  <si>
+    <t>Test0323202124938</t>
+  </si>
+  <si>
+    <t>19512</t>
+  </si>
+  <si>
+    <t>201205026</t>
+  </si>
+  <si>
+    <t>Test0323202131825</t>
+  </si>
+  <si>
+    <t>38-2573319</t>
+  </si>
+  <si>
+    <t>Test0323202132432</t>
+  </si>
+  <si>
+    <t>57770</t>
+  </si>
+  <si>
+    <t>201205029</t>
+  </si>
+  <si>
+    <t>Test0323202140251</t>
+  </si>
+  <si>
+    <t>91-3393209</t>
+  </si>
+  <si>
+    <t>Test0323202140857</t>
+  </si>
+  <si>
+    <t>71917</t>
+  </si>
+  <si>
+    <t>201205030</t>
+  </si>
+  <si>
+    <t>Test0323202150629</t>
+  </si>
+  <si>
+    <t>Test0323202161756</t>
+  </si>
+  <si>
+    <t>23-2253920</t>
+  </si>
+  <si>
+    <t>Test0323202162402</t>
+  </si>
+  <si>
+    <t>6008</t>
+  </si>
+  <si>
+    <t>Test0323202173417</t>
+  </si>
+  <si>
+    <t>64-9997334</t>
+  </si>
+  <si>
+    <t>Test0323202174026</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Test03242021102204</t>
+  </si>
+  <si>
+    <t>86-1735036</t>
+  </si>
+  <si>
+    <t>Test03242021102834</t>
+  </si>
+  <si>
+    <t>62552</t>
+  </si>
+  <si>
+    <t>Test03242021110712</t>
+  </si>
+  <si>
+    <t>90-9456784</t>
+  </si>
+  <si>
+    <t>Test03242021111320</t>
+  </si>
+  <si>
+    <t>81742</t>
+  </si>
+  <si>
+    <t>Test03242021123443</t>
+  </si>
+  <si>
+    <t>14-8964027</t>
+  </si>
+  <si>
+    <t>Test03242021124050</t>
+  </si>
+  <si>
+    <t>31545</t>
+  </si>
+  <si>
+    <t>73-2025822</t>
+  </si>
+  <si>
+    <t>Test03242021124551</t>
+  </si>
+  <si>
+    <t>22085</t>
+  </si>
+  <si>
+    <t>Test03242021125806</t>
+  </si>
+  <si>
+    <t>13-5421762</t>
+  </si>
+  <si>
+    <t>Test0324202110413</t>
+  </si>
+  <si>
+    <t>66126</t>
+  </si>
+  <si>
+    <t>68-4757917</t>
+  </si>
+  <si>
+    <t>Test0324202110913</t>
+  </si>
+  <si>
+    <t>21376</t>
+  </si>
+  <si>
+    <t>Test0324202114128</t>
+  </si>
+  <si>
+    <t>97-9542303</t>
+  </si>
+  <si>
+    <t>Test0324202114735</t>
+  </si>
+  <si>
+    <t>99782</t>
+  </si>
+  <si>
+    <t>50-2436581</t>
+  </si>
+  <si>
+    <t>Test0324202115235</t>
+  </si>
+  <si>
+    <t>3991</t>
+  </si>
+  <si>
+    <t>Test0324202160243</t>
+  </si>
+  <si>
+    <t>79-9572708</t>
+  </si>
+  <si>
+    <t>Test0324202160915</t>
+  </si>
+  <si>
+    <t>93471</t>
+  </si>
+  <si>
+    <t>70-4690510</t>
+  </si>
+  <si>
+    <t>Test0324202161416</t>
+  </si>
+  <si>
+    <t>25176</t>
+  </si>
+  <si>
+    <t>Test0324202165154</t>
+  </si>
+  <si>
+    <t>49-4981038</t>
+  </si>
+  <si>
+    <t>Test0324202165803</t>
+  </si>
+  <si>
+    <t>49781</t>
+  </si>
+  <si>
+    <t>Test0324202171354</t>
+  </si>
+  <si>
+    <t>39-7765562</t>
+  </si>
+  <si>
+    <t>Test0324202172005</t>
+  </si>
+  <si>
+    <t>50979</t>
+  </si>
+  <si>
+    <t>26-2699267</t>
+  </si>
+  <si>
+    <t>Test0324202172506</t>
+  </si>
+  <si>
+    <t>2612</t>
+  </si>
+  <si>
+    <t>Test0324202175056</t>
+  </si>
+  <si>
+    <t>46-7816603</t>
+  </si>
+  <si>
+    <t>Test0324202175703</t>
+  </si>
+  <si>
+    <t>20350</t>
+  </si>
+  <si>
+    <t>Test0324202181010</t>
+  </si>
+  <si>
+    <t>66-0667388</t>
+  </si>
+  <si>
+    <t>Test0324202181617</t>
+  </si>
+  <si>
+    <t>63177</t>
+  </si>
+  <si>
+    <t>36-6028143</t>
+  </si>
+  <si>
+    <t>Test0324202182117</t>
+  </si>
+  <si>
+    <t>84640</t>
+  </si>
+  <si>
+    <t>Test0325202194502</t>
+  </si>
+  <si>
+    <t>75-6607380</t>
+  </si>
+  <si>
+    <t>Test0325202195114</t>
+  </si>
+  <si>
+    <t>21300</t>
+  </si>
+  <si>
+    <t>81-6092279</t>
+  </si>
+  <si>
+    <t>Test0325202195635</t>
+  </si>
+  <si>
+    <t>79416</t>
+  </si>
+  <si>
+    <t>Test03252021102645</t>
+  </si>
+  <si>
+    <t>50-3187098</t>
+  </si>
+  <si>
+    <t>Test03252021103254</t>
+  </si>
+  <si>
+    <t>98500</t>
+  </si>
+  <si>
+    <t>39-8296435</t>
+  </si>
+  <si>
+    <t>Test03252021103755</t>
+  </si>
+  <si>
+    <t>6526</t>
+  </si>
+  <si>
+    <t>Test03252021111628</t>
+  </si>
+  <si>
+    <t>63-2467421</t>
+  </si>
+  <si>
+    <t>Test03252021112301</t>
+  </si>
+  <si>
+    <t>13050</t>
+  </si>
+  <si>
+    <t>54-4965881</t>
+  </si>
+  <si>
+    <t>Test03252021112804</t>
+  </si>
+  <si>
+    <t>8665</t>
+  </si>
+  <si>
+    <t>Test03252021125843</t>
   </si>
   <si>
     <t>35010-</t>
   </si>
   <si>
-    <t>92-2793200</t>
-  </si>
-  <si>
-    <t>Test0308202184002</t>
-  </si>
-  <si>
-    <t>03/15/2021</t>
-  </si>
-  <si>
-    <t>201204734</t>
-  </si>
-  <si>
-    <t>Test0309202195319</t>
-  </si>
-  <si>
-    <t>41-0350344</t>
-  </si>
-  <si>
-    <t>Test0309202195928</t>
-  </si>
-  <si>
-    <t>201204735</t>
-  </si>
-  <si>
-    <t>Test03092021113259</t>
-  </si>
-  <si>
-    <t>75-9272649</t>
-  </si>
-  <si>
-    <t>Test03092021113908</t>
-  </si>
-  <si>
-    <t>Test0309202163649</t>
-  </si>
-  <si>
-    <t>87-9197398</t>
-  </si>
-  <si>
-    <t>Test0309202164307</t>
-  </si>
-  <si>
-    <t>Test0309202170229</t>
-  </si>
-  <si>
-    <t>22-6736069</t>
-  </si>
-  <si>
-    <t>Test0309202170839</t>
-  </si>
-  <si>
-    <t>201204738</t>
-  </si>
-  <si>
-    <t>Test0309202173317</t>
-  </si>
-  <si>
-    <t>61-6703041</t>
-  </si>
-  <si>
-    <t>Test0309202173927</t>
-  </si>
-  <si>
-    <t>201204739</t>
-  </si>
-  <si>
-    <t>Test0309202180316</t>
-  </si>
-  <si>
-    <t>70-1315274</t>
-  </si>
-  <si>
-    <t>Test0309202180928</t>
-  </si>
-  <si>
-    <t>201204740</t>
-  </si>
-  <si>
-    <t>Test03102021102015</t>
-  </si>
-  <si>
-    <t>87-5903288</t>
-  </si>
-  <si>
-    <t>Test03102021102627</t>
-  </si>
-  <si>
-    <t>201204744</t>
-  </si>
-  <si>
-    <t>Test03102021112930</t>
-  </si>
-  <si>
-    <t>30-0946773</t>
-  </si>
-  <si>
-    <t>Test03102021113540</t>
-  </si>
-  <si>
-    <t>Test03102021121907</t>
-  </si>
-  <si>
-    <t>45-1244425</t>
-  </si>
-  <si>
-    <t>Test03102021122517</t>
-  </si>
-  <si>
-    <t>Test0310202154628</t>
-  </si>
-  <si>
-    <t>96-5189304</t>
-  </si>
-  <si>
-    <t>Test0310202155236</t>
-  </si>
-  <si>
-    <t>201204747</t>
-  </si>
-  <si>
-    <t>Test0310202165232</t>
-  </si>
-  <si>
-    <t>96-8531926</t>
-  </si>
-  <si>
-    <t>Test0310202165905</t>
-  </si>
-  <si>
-    <t>201204749</t>
-  </si>
-  <si>
-    <t>Test03112021122222</t>
-  </si>
-  <si>
-    <t>46-6261343</t>
-  </si>
-  <si>
-    <t>Test03112021122831</t>
-  </si>
-  <si>
-    <t>201204760</t>
-  </si>
-  <si>
-    <t>Test0311202143558</t>
-  </si>
-  <si>
-    <t>96-524994_</t>
-  </si>
-  <si>
-    <t>Test0311202144205</t>
-  </si>
-  <si>
-    <t>Test0311202145327</t>
-  </si>
-  <si>
-    <t>38-3766247</t>
-  </si>
-  <si>
-    <t>Test0311202145932</t>
-  </si>
-  <si>
-    <t>201204762</t>
-  </si>
-  <si>
-    <t>Test0311202154827</t>
-  </si>
-  <si>
-    <t>49-4920679</t>
-  </si>
-  <si>
-    <t>Test0311202155436</t>
-  </si>
-  <si>
-    <t>201204763</t>
-  </si>
-  <si>
-    <t>Test03122021112932</t>
-  </si>
-  <si>
-    <t>97-2080956</t>
-  </si>
-  <si>
-    <t>Test03122021113542</t>
-  </si>
-  <si>
-    <t>201204773</t>
-  </si>
-  <si>
-    <t>Test0312202111102</t>
-  </si>
-  <si>
-    <t>Test0312202114015</t>
-  </si>
-  <si>
-    <t>75-5790047</t>
-  </si>
-  <si>
-    <t>Test0312202114626</t>
-  </si>
-  <si>
-    <t>201204774</t>
-  </si>
-  <si>
-    <t>Test0312202125315</t>
-  </si>
-  <si>
-    <t>53-0701817</t>
-  </si>
-  <si>
-    <t>Test0312202125924</t>
-  </si>
-  <si>
-    <t>Test0312202135521</t>
-  </si>
-  <si>
-    <t>69-7341572</t>
-  </si>
-  <si>
-    <t>Test0312202140129</t>
-  </si>
-  <si>
-    <t>201204775</t>
-  </si>
-  <si>
-    <t>Test0312202145645</t>
-  </si>
-  <si>
-    <t>38-5681801</t>
-  </si>
-  <si>
-    <t>Test0312202150254</t>
-  </si>
-  <si>
-    <t>201204776</t>
-  </si>
-  <si>
-    <t>Test0312202153149</t>
-  </si>
-  <si>
-    <t>38-2832699</t>
-  </si>
-  <si>
-    <t>Test0312202153800</t>
-  </si>
-  <si>
-    <t>201204777</t>
-  </si>
-  <si>
-    <t>Test0312202162542</t>
-  </si>
-  <si>
-    <t>25-0761030</t>
-  </si>
-  <si>
-    <t>Test0312202163153</t>
-  </si>
-  <si>
-    <t>201204778</t>
-  </si>
-  <si>
-    <t>Test0312202170743</t>
-  </si>
-  <si>
-    <t>52-8498274</t>
-  </si>
-  <si>
-    <t>Test0312202171351</t>
-  </si>
-  <si>
-    <t>Test0312202173211</t>
-  </si>
-  <si>
-    <t>38-1799939</t>
-  </si>
-  <si>
-    <t>Test0312202173822</t>
-  </si>
-  <si>
-    <t>201204779</t>
-  </si>
-  <si>
-    <t>Test0312202181514</t>
-  </si>
-  <si>
-    <t>35-2956088</t>
-  </si>
-  <si>
-    <t>Test0312202182121</t>
-  </si>
-  <si>
-    <t>201204780</t>
-  </si>
-  <si>
-    <t>Test0312202190806</t>
-  </si>
-  <si>
-    <t>74-2042568</t>
-  </si>
-  <si>
-    <t>Test0312202191417</t>
-  </si>
-  <si>
-    <t>201204782</t>
+    <t>62-3908555</t>
+  </si>
+  <si>
+    <t>Test0325202110506</t>
+  </si>
+  <si>
+    <t>88562</t>
+  </si>
+  <si>
+    <t>63-3744925</t>
+  </si>
+  <si>
+    <t>Test0325202111007</t>
+  </si>
+  <si>
+    <t>13849</t>
+  </si>
+  <si>
+    <t>Test0325202121004</t>
+  </si>
+  <si>
+    <t>91-3223301</t>
+  </si>
+  <si>
+    <t>Test0325202121611</t>
+  </si>
+  <si>
+    <t>93153</t>
+  </si>
+  <si>
+    <t>Test0325202125538</t>
+  </si>
+  <si>
+    <t>42-1337402</t>
+  </si>
+  <si>
+    <t>Test0325202130148</t>
+  </si>
+  <si>
+    <t>69482</t>
+  </si>
+  <si>
+    <t>66-2384676</t>
+  </si>
+  <si>
+    <t>Test0325202130650</t>
+  </si>
+  <si>
+    <t>89049</t>
+  </si>
+  <si>
+    <t>201205043</t>
+  </si>
+  <si>
+    <t>Test0325202135504</t>
+  </si>
+  <si>
+    <t>90-4902793</t>
+  </si>
+  <si>
+    <t>Test0325202140111</t>
+  </si>
+  <si>
+    <t>67677</t>
+  </si>
+  <si>
+    <t>64-4648204</t>
+  </si>
+  <si>
+    <t>Test0325202140612</t>
+  </si>
+  <si>
+    <t>96655</t>
+  </si>
+  <si>
+    <t>201205044</t>
+  </si>
+  <si>
+    <t>Test0325202150631</t>
+  </si>
+  <si>
+    <t>84-7420521</t>
+  </si>
+  <si>
+    <t>Test0325202151245</t>
+  </si>
+  <si>
+    <t>15562</t>
+  </si>
+  <si>
+    <t>39-3596057</t>
+  </si>
+  <si>
+    <t>Test0325202151747</t>
+  </si>
+  <si>
+    <t>61022</t>
+  </si>
+  <si>
+    <t>201205046</t>
+  </si>
+  <si>
+    <t>Test0325202155148</t>
+  </si>
+  <si>
+    <t>78-7933653</t>
+  </si>
+  <si>
+    <t>Test0325202155757</t>
+  </si>
+  <si>
+    <t>43716</t>
+  </si>
+  <si>
+    <t>62-0018788</t>
+  </si>
+  <si>
+    <t>Test0325202160259</t>
+  </si>
+  <si>
+    <t>56245</t>
+  </si>
+  <si>
+    <t>201205050</t>
+  </si>
+  <si>
+    <t>Test0325202163916</t>
+  </si>
+  <si>
+    <t>96-9615739</t>
+  </si>
+  <si>
+    <t>Test0325202164526</t>
+  </si>
+  <si>
+    <t>19948</t>
+  </si>
+  <si>
+    <t>93-5471376</t>
+  </si>
+  <si>
+    <t>Test0325202165027</t>
+  </si>
+  <si>
+    <t>12583</t>
+  </si>
+  <si>
+    <t>201205051</t>
+  </si>
+  <si>
+    <t>Test0325202171312</t>
+  </si>
+  <si>
+    <t>99-7423021</t>
+  </si>
+  <si>
+    <t>Test0325202171921</t>
+  </si>
+  <si>
+    <t>55268</t>
+  </si>
+  <si>
+    <t>46-7509969</t>
+  </si>
+  <si>
+    <t>Test0325202172421</t>
+  </si>
+  <si>
+    <t>87377</t>
+  </si>
+  <si>
+    <t>201205052</t>
+  </si>
+  <si>
+    <t>Test0325202191936</t>
+  </si>
+  <si>
+    <t>96-5895447</t>
+  </si>
+  <si>
+    <t>Test0325202192547</t>
+  </si>
+  <si>
+    <t>52880</t>
+  </si>
+  <si>
+    <t>78-6685999</t>
+  </si>
+  <si>
+    <t>Test0325202193047</t>
+  </si>
+  <si>
+    <t>48878</t>
+  </si>
+  <si>
+    <t>201205054</t>
+  </si>
+  <si>
+    <t>Test03252021100133</t>
+  </si>
+  <si>
+    <t>90-4343351</t>
+  </si>
+  <si>
+    <t>Test03252021100744</t>
+  </si>
+  <si>
+    <t>70474</t>
+  </si>
+  <si>
+    <t>45-7849482</t>
+  </si>
+  <si>
+    <t>Test03252021101246</t>
+  </si>
+  <si>
+    <t>17121</t>
+  </si>
+  <si>
+    <t>201205055</t>
+  </si>
+  <si>
+    <t>Test0326202194555</t>
+  </si>
+  <si>
+    <t>17-5246274</t>
+  </si>
+  <si>
+    <t>Test0326202195207</t>
+  </si>
+  <si>
+    <t>54458</t>
+  </si>
+  <si>
+    <t>51-9903073</t>
+  </si>
+  <si>
+    <t>Test0326202195708</t>
+  </si>
+  <si>
+    <t>34154</t>
+  </si>
+  <si>
+    <t>201205056</t>
+  </si>
+  <si>
+    <t>Test03262021102550</t>
+  </si>
+  <si>
+    <t>91-8270951</t>
+  </si>
+  <si>
+    <t>Test03262021103201</t>
+  </si>
+  <si>
+    <t>10799</t>
+  </si>
+  <si>
+    <t>Test03262021104955</t>
+  </si>
+  <si>
+    <t>97-3873881</t>
+  </si>
+  <si>
+    <t>Test03262021105606</t>
+  </si>
+  <si>
+    <t>72822</t>
+  </si>
+  <si>
+    <t>52-9896509</t>
+  </si>
+  <si>
+    <t>Test03262021110108</t>
+  </si>
+  <si>
+    <t>61842</t>
+  </si>
+  <si>
+    <t>201205058</t>
+  </si>
+  <si>
+    <t>Test03262021113128</t>
+  </si>
+  <si>
+    <t>53-7473663</t>
+  </si>
+  <si>
+    <t>Test03262021113736</t>
+  </si>
+  <si>
+    <t>84196</t>
+  </si>
+  <si>
+    <t>Test03262021115347</t>
+  </si>
+  <si>
+    <t>39-7578655</t>
+  </si>
+  <si>
+    <t>Test03262021115956</t>
+  </si>
+  <si>
+    <t>39383</t>
+  </si>
+  <si>
+    <t>50-7646675</t>
+  </si>
+  <si>
+    <t>Test03262021120456</t>
+  </si>
+  <si>
+    <t>90947</t>
+  </si>
+  <si>
+    <t>201205059</t>
+  </si>
+  <si>
+    <t>Test03262021124843</t>
+  </si>
+  <si>
+    <t>62-8494875</t>
+  </si>
+  <si>
+    <t>Test03262021125451</t>
+  </si>
+  <si>
+    <t>86270</t>
+  </si>
+  <si>
+    <t>53-6407808</t>
+  </si>
+  <si>
+    <t>Test03262021125951</t>
+  </si>
+  <si>
+    <t>91865</t>
+  </si>
+  <si>
+    <t>Test0326202114322</t>
+  </si>
+  <si>
+    <t>69-3022698</t>
+  </si>
+  <si>
+    <t>Test0326202114929</t>
+  </si>
+  <si>
+    <t>57304</t>
+  </si>
+  <si>
+    <t>38-5087587</t>
+  </si>
+  <si>
+    <t>Test0326202115429</t>
+  </si>
+  <si>
+    <t>55010</t>
+  </si>
+  <si>
+    <t>201205060</t>
+  </si>
+  <si>
+    <t>Test0326202140125</t>
+  </si>
+  <si>
+    <t>62-9747232</t>
+  </si>
+  <si>
+    <t>Test0326202140753</t>
+  </si>
+  <si>
+    <t>61708</t>
+  </si>
+  <si>
+    <t>88-1395277</t>
+  </si>
+  <si>
+    <t>Test0326202141254</t>
+  </si>
+  <si>
+    <t>93386</t>
+  </si>
+  <si>
+    <t>201205061</t>
+  </si>
+  <si>
+    <t>Test0326202144404</t>
+  </si>
+  <si>
+    <t>27-0737039</t>
+  </si>
+  <si>
+    <t>Test0326202145057</t>
+  </si>
+  <si>
+    <t>85407</t>
+  </si>
+  <si>
+    <t>Test0326202150745</t>
+  </si>
+  <si>
+    <t>44-8281892</t>
+  </si>
+  <si>
+    <t>Test0326202151353</t>
+  </si>
+  <si>
+    <t>76730</t>
+  </si>
+  <si>
+    <t>86-2778764</t>
+  </si>
+  <si>
+    <t>Test0326202151855</t>
+  </si>
+  <si>
+    <t>64375</t>
+  </si>
+  <si>
+    <t>201205062</t>
+  </si>
+  <si>
+    <t>Test0326202155321</t>
+  </si>
+  <si>
+    <t>87-8819575</t>
+  </si>
+  <si>
+    <t>Test0326202155935</t>
+  </si>
+  <si>
+    <t>4615</t>
+  </si>
+  <si>
+    <t>93-8065968</t>
+  </si>
+  <si>
+    <t>Test0326202160443</t>
+  </si>
+  <si>
+    <t>50317</t>
+  </si>
+  <si>
+    <t>Test0326202162957</t>
+  </si>
+  <si>
+    <t>51-18813__</t>
+  </si>
+  <si>
+    <t>Test0326202163604</t>
+  </si>
+  <si>
+    <t>17627</t>
+  </si>
+  <si>
+    <t>Test0326202164856</t>
+  </si>
+  <si>
+    <t>35-4808398</t>
+  </si>
+  <si>
+    <t>Test0326202165503</t>
+  </si>
+  <si>
+    <t>85267</t>
+  </si>
+  <si>
+    <t>68-7059494</t>
+  </si>
+  <si>
+    <t>Test0326202170005</t>
+  </si>
+  <si>
+    <t>79084</t>
+  </si>
+  <si>
+    <t>201205063</t>
+  </si>
+  <si>
+    <t>Test0326202173420</t>
+  </si>
+  <si>
+    <t>49-0980191</t>
+  </si>
+  <si>
+    <t>Test0326202174026</t>
+  </si>
+  <si>
+    <t>45588</t>
+  </si>
+  <si>
+    <t>62-3175954</t>
+  </si>
+  <si>
+    <t>Test0326202174527</t>
+  </si>
+  <si>
+    <t>80988</t>
+  </si>
+  <si>
+    <t>201205064</t>
+  </si>
+  <si>
+    <t>Test0326202183736</t>
+  </si>
+  <si>
+    <t>77-7453313</t>
+  </si>
+  <si>
+    <t>Test0326202184342</t>
+  </si>
+  <si>
+    <t>51796</t>
+  </si>
+  <si>
+    <t>13-8595678</t>
+  </si>
+  <si>
+    <t>Test0326202184844</t>
+  </si>
+  <si>
+    <t>25892</t>
+  </si>
+  <si>
+    <t>201205065</t>
+  </si>
+  <si>
+    <t>Test0329202191708</t>
+  </si>
+  <si>
+    <t>61-1225332</t>
+  </si>
+  <si>
+    <t>Test0329202192317</t>
+  </si>
+  <si>
+    <t>31101</t>
+  </si>
+  <si>
+    <t>69-5891837</t>
+  </si>
+  <si>
+    <t>Test0329202192816</t>
+  </si>
+  <si>
+    <t>62823</t>
+  </si>
+  <si>
+    <t>201205070</t>
+  </si>
+  <si>
+    <t>Test03302021103711</t>
+  </si>
+  <si>
+    <t>92-1398071</t>
+  </si>
+  <si>
+    <t>Test03302021104341</t>
+  </si>
+  <si>
+    <t>21469</t>
+  </si>
+  <si>
+    <t>50-1996629</t>
+  </si>
+  <si>
+    <t>Test03302021104853</t>
+  </si>
+  <si>
+    <t>47897</t>
+  </si>
+  <si>
+    <t>201205079</t>
+  </si>
+  <si>
+    <t>Test03302021120346</t>
+  </si>
+  <si>
+    <t>Test03302021122107</t>
+  </si>
+  <si>
+    <t>Test0330202110320</t>
+  </si>
+  <si>
+    <t>Test0330202111820</t>
+  </si>
+  <si>
+    <t>Test0330202133921</t>
+  </si>
+  <si>
+    <t>42-3789834</t>
+  </si>
+  <si>
+    <t>Test0330202134540</t>
+  </si>
+  <si>
+    <t>64893</t>
+  </si>
+  <si>
+    <t>Test0330202142159</t>
+  </si>
+  <si>
+    <t>17-0819549</t>
+  </si>
+  <si>
+    <t>Test0330202142812</t>
+  </si>
+  <si>
+    <t>79889</t>
+  </si>
+  <si>
+    <t>Test0330202144902</t>
+  </si>
+  <si>
+    <t>89-7362249</t>
+  </si>
+  <si>
+    <t>Test0330202145511</t>
+  </si>
+  <si>
+    <t>48003</t>
+  </si>
+  <si>
+    <t>Test0330202161742</t>
+  </si>
+  <si>
+    <t>37-3887227</t>
+  </si>
+  <si>
+    <t>Test0330202162349</t>
+  </si>
+  <si>
+    <t>6208</t>
+  </si>
+  <si>
+    <t>Test0330202165826</t>
+  </si>
+  <si>
+    <t>81-4632929</t>
+  </si>
+  <si>
+    <t>Test0330202170433</t>
+  </si>
+  <si>
+    <t>82368</t>
+  </si>
+  <si>
+    <t>Test0330202172110</t>
+  </si>
+  <si>
+    <t>78-0996612</t>
+  </si>
+  <si>
+    <t>Test0330202172717</t>
+  </si>
+  <si>
+    <t>27817</t>
+  </si>
+  <si>
+    <t>Test0330202180317</t>
+  </si>
+  <si>
+    <t>95-5307823</t>
+  </si>
+  <si>
+    <t>Test0330202180924</t>
+  </si>
+  <si>
+    <t>39860</t>
+  </si>
+  <si>
+    <t>201205081</t>
+  </si>
+  <si>
+    <t>Test03312021121350</t>
+  </si>
+  <si>
+    <t>15-4332803</t>
+  </si>
+  <si>
+    <t>Test03312021121942</t>
+  </si>
+  <si>
+    <t>35583</t>
+  </si>
+  <si>
+    <t>Test0331202115238</t>
+  </si>
+  <si>
+    <t>62-2250319</t>
+  </si>
+  <si>
+    <t>Test0331202115817</t>
+  </si>
+  <si>
+    <t>12884</t>
+  </si>
+  <si>
+    <t>Test0331202123250</t>
+  </si>
+  <si>
+    <t>43-1160037</t>
+  </si>
+  <si>
+    <t>Test0331202123829</t>
+  </si>
+  <si>
+    <t>86230</t>
+  </si>
+  <si>
+    <t>Test0331202133925</t>
+  </si>
+  <si>
+    <t>80-0601603</t>
+  </si>
+  <si>
+    <t>Test0331202134507</t>
+  </si>
+  <si>
+    <t>30408</t>
+  </si>
+  <si>
+    <t>Test0331202142625</t>
+  </si>
+  <si>
+    <t>58-1830812</t>
+  </si>
+  <si>
+    <t>Test0331202143204</t>
+  </si>
+  <si>
+    <t>90619</t>
+  </si>
+  <si>
+    <t>Test0331202144818</t>
+  </si>
+  <si>
+    <t>46-1902405</t>
+  </si>
+  <si>
+    <t>Test0331202145359</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>Test0331202154438</t>
+  </si>
+  <si>
+    <t>11-6423534</t>
+  </si>
+  <si>
+    <t>Test0331202155016</t>
+  </si>
+  <si>
+    <t>14792</t>
+  </si>
+  <si>
+    <t>Test0331202160029</t>
+  </si>
+  <si>
+    <t>78-3566232</t>
+  </si>
+  <si>
+    <t>Test0331202160605</t>
+  </si>
+  <si>
+    <t>68213</t>
+  </si>
+  <si>
+    <t>Test0331202165719</t>
+  </si>
+  <si>
+    <t>26-7700675</t>
+  </si>
+  <si>
+    <t>Test0331202170300</t>
+  </si>
+  <si>
+    <t>91538</t>
+  </si>
+  <si>
+    <t>Test0331202171827</t>
+  </si>
+  <si>
+    <t>27-6189521</t>
+  </si>
+  <si>
+    <t>Test0331202172404</t>
+  </si>
+  <si>
+    <t>34627</t>
+  </si>
+  <si>
+    <t>Test0331202175414</t>
+  </si>
+  <si>
+    <t>98-0965266</t>
+  </si>
+  <si>
+    <t>Test0331202175950</t>
+  </si>
+  <si>
+    <t>7514</t>
+  </si>
+  <si>
+    <t>Test0331202182948</t>
+  </si>
+  <si>
+    <t>68-9407758</t>
+  </si>
+  <si>
+    <t>Test0331202183525</t>
+  </si>
+  <si>
+    <t>93275</t>
+  </si>
+  <si>
+    <t>Test0401202194953</t>
+  </si>
+  <si>
+    <t>79-0479499</t>
+  </si>
+  <si>
+    <t>Test0401202195534</t>
+  </si>
+  <si>
+    <t>14206</t>
+  </si>
+  <si>
+    <t>Test04012021102027</t>
+  </si>
+  <si>
+    <t>66-0630845</t>
+  </si>
+  <si>
+    <t>Test04012021102608</t>
+  </si>
+  <si>
+    <t>11427</t>
+  </si>
+  <si>
+    <t>Test04012021103454</t>
+  </si>
+  <si>
+    <t>14-4134298</t>
+  </si>
+  <si>
+    <t>Test04012021104034</t>
+  </si>
+  <si>
+    <t>23049</t>
+  </si>
+  <si>
+    <t>Test04012021111140</t>
+  </si>
+  <si>
+    <t>52-8077736</t>
+  </si>
+  <si>
+    <t>Test04012021111722</t>
+  </si>
+  <si>
+    <t>88834</t>
+  </si>
+  <si>
+    <t>Test04012021113349</t>
+  </si>
+  <si>
+    <t>69-3647580</t>
+  </si>
+  <si>
+    <t>Test04012021113928</t>
+  </si>
+  <si>
+    <t>53931</t>
+  </si>
+  <si>
+    <t>Test04012021115636</t>
+  </si>
+  <si>
+    <t>38-9030874</t>
+  </si>
+  <si>
+    <t>Test04012021120248</t>
+  </si>
+  <si>
+    <t>51589</t>
+  </si>
+  <si>
+    <t>Test04012021123744</t>
+  </si>
+  <si>
+    <t>50-6253185</t>
+  </si>
+  <si>
+    <t>Test04012021124321</t>
+  </si>
+  <si>
+    <t>92410</t>
+  </si>
+  <si>
+    <t>Test0401202110738</t>
+  </si>
+  <si>
+    <t>82-6335042</t>
+  </si>
+  <si>
+    <t>Test0401202111315</t>
+  </si>
+  <si>
+    <t>46702</t>
+  </si>
+  <si>
+    <t>Test0401202112556</t>
+  </si>
+  <si>
+    <t>32-6962296</t>
+  </si>
+  <si>
+    <t>Test0401202113132</t>
+  </si>
+  <si>
+    <t>96287</t>
+  </si>
+  <si>
+    <t>Test0401202114730</t>
+  </si>
+  <si>
+    <t>63-8717399</t>
+  </si>
+  <si>
+    <t>Test0401202115308</t>
+  </si>
+  <si>
+    <t>24805</t>
+  </si>
+  <si>
+    <t>Test0401202121003</t>
+  </si>
+  <si>
+    <t>91-3441944</t>
+  </si>
+  <si>
+    <t>Test0401202121542</t>
+  </si>
+  <si>
+    <t>69519</t>
+  </si>
+  <si>
+    <t>Test0401202124711</t>
+  </si>
+  <si>
+    <t>62-1044155</t>
+  </si>
+  <si>
+    <t>Test0401202125251</t>
+  </si>
+  <si>
+    <t>36245</t>
+  </si>
+  <si>
+    <t>Test0401202135914</t>
+  </si>
+  <si>
+    <t>67-0214346</t>
+  </si>
+  <si>
+    <t>Test0401202140507</t>
+  </si>
+  <si>
+    <t>13126</t>
+  </si>
+  <si>
+    <t>Test0401202143937</t>
+  </si>
+  <si>
+    <t>59-474949_</t>
+  </si>
+  <si>
+    <t>Test0401202144528</t>
+  </si>
+  <si>
+    <t>14249</t>
+  </si>
+  <si>
+    <t>Test0401202145434</t>
+  </si>
+  <si>
+    <t>50-9775157</t>
+  </si>
+  <si>
+    <t>Test0401202150013</t>
+  </si>
+  <si>
+    <t>23776</t>
+  </si>
+  <si>
+    <t>Test0401202152422</t>
+  </si>
+  <si>
+    <t>37-2648318</t>
+  </si>
+  <si>
+    <t>Test0401202153006</t>
+  </si>
+  <si>
+    <t>42050</t>
+  </si>
+  <si>
+    <t>Test0401202160842</t>
+  </si>
+  <si>
+    <t>65-552305_</t>
+  </si>
+  <si>
+    <t>Test0401202161426</t>
+  </si>
+  <si>
+    <t>13096</t>
+  </si>
+  <si>
+    <t>Test0401202162328</t>
+  </si>
+  <si>
+    <t>29-6962038</t>
+  </si>
+  <si>
+    <t>Test0401202162910</t>
+  </si>
+  <si>
+    <t>79753</t>
+  </si>
+  <si>
+    <t>Test0401202171645</t>
+  </si>
+  <si>
+    <t>23-508368_</t>
+  </si>
+  <si>
+    <t>Test0401202172227</t>
+  </si>
+  <si>
+    <t>44122</t>
+  </si>
+  <si>
+    <t>Test0401202173139</t>
+  </si>
+  <si>
+    <t>21-0298012</t>
+  </si>
+  <si>
+    <t>Test0401202173718</t>
+  </si>
+  <si>
+    <t>98319</t>
+  </si>
+  <si>
+    <t>Test04022021100850</t>
+  </si>
+  <si>
+    <t>37-8378402</t>
+  </si>
+  <si>
+    <t>Test04022021101431</t>
+  </si>
+  <si>
+    <t>2642</t>
+  </si>
+  <si>
+    <t>Test04022021102543</t>
+  </si>
+  <si>
+    <t>21-5637750</t>
+  </si>
+  <si>
+    <t>Test04022021103123</t>
+  </si>
+  <si>
+    <t>23438</t>
+  </si>
+  <si>
+    <t>Test04022021110545</t>
+  </si>
+  <si>
+    <t>35-8904315</t>
+  </si>
+  <si>
+    <t>Test04022021111123</t>
+  </si>
+  <si>
+    <t>25649</t>
+  </si>
+  <si>
+    <t>Test04022021114615</t>
+  </si>
+  <si>
+    <t>46-1539759</t>
+  </si>
+  <si>
+    <t>Test04022021115152</t>
+  </si>
+  <si>
+    <t>54283</t>
+  </si>
+  <si>
+    <t>Test04022021120428</t>
+  </si>
+  <si>
+    <t>92-3678483</t>
+  </si>
+  <si>
+    <t>Test04022021121005</t>
+  </si>
+  <si>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>Test04022021124312</t>
+  </si>
+  <si>
+    <t>21-0075316</t>
+  </si>
+  <si>
+    <t>Test04022021124849</t>
+  </si>
+  <si>
+    <t>38882</t>
+  </si>
+  <si>
+    <t>Test0402202112635</t>
+  </si>
+  <si>
+    <t>21-165433_</t>
+  </si>
+  <si>
+    <t>Test0402202113212</t>
+  </si>
+  <si>
+    <t>32803</t>
+  </si>
+  <si>
+    <t>Test0402202114454</t>
+  </si>
+  <si>
+    <t>86-0436193</t>
+  </si>
+  <si>
+    <t>Test0402202115034</t>
+  </si>
+  <si>
+    <t>3335</t>
+  </si>
+  <si>
+    <t>Test0402202121131</t>
+  </si>
+  <si>
+    <t>97-8035945</t>
+  </si>
+  <si>
+    <t>Test0402202121710</t>
+  </si>
+  <si>
+    <t>65887</t>
+  </si>
+  <si>
+    <t>Test0402202132349</t>
+  </si>
+  <si>
+    <t>57-8990392</t>
+  </si>
+  <si>
+    <t>Test0402202132926</t>
+  </si>
+  <si>
+    <t>61337</t>
+  </si>
+  <si>
+    <t>Test0402202134849</t>
+  </si>
+  <si>
+    <t>91-7046440</t>
+  </si>
+  <si>
+    <t>Test0402202135426</t>
+  </si>
+  <si>
+    <t>74870</t>
+  </si>
+  <si>
+    <t>Test0402202141921</t>
+  </si>
+  <si>
+    <t>39-1476883</t>
+  </si>
+  <si>
+    <t>Test0402202142458</t>
+  </si>
+  <si>
+    <t>35581</t>
+  </si>
+  <si>
+    <t>Test0402202145044</t>
+  </si>
+  <si>
+    <t>12-3715348</t>
+  </si>
+  <si>
+    <t>Test0402202145620</t>
+  </si>
+  <si>
+    <t>23184</t>
+  </si>
+  <si>
+    <t>Test0402202151010</t>
+  </si>
+  <si>
+    <t>62-5905377</t>
+  </si>
+  <si>
+    <t>Test0402202151548</t>
+  </si>
+  <si>
+    <t>23312</t>
+  </si>
+  <si>
+    <t>Test0402202153812</t>
+  </si>
+  <si>
+    <t>58-6192777</t>
+  </si>
+  <si>
+    <t>Test0402202154349</t>
+  </si>
+  <si>
+    <t>92635</t>
+  </si>
+  <si>
+    <t>Test0402202160959</t>
+  </si>
+  <si>
+    <t>98-4876453</t>
+  </si>
+  <si>
+    <t>Test0402202161538</t>
+  </si>
+  <si>
+    <t>86975</t>
+  </si>
+  <si>
+    <t>Test0402202163001</t>
+  </si>
+  <si>
+    <t>21-4083744</t>
+  </si>
+  <si>
+    <t>Test0402202163601</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>201205135</t>
+  </si>
+  <si>
+    <t>Test0402202173254</t>
+  </si>
+  <si>
+    <t>64-8801238</t>
+  </si>
+  <si>
+    <t>Test0402202173905</t>
+  </si>
+  <si>
+    <t>57471</t>
+  </si>
+  <si>
+    <t>Test0402202181558</t>
+  </si>
+  <si>
+    <t>70-6539866</t>
+  </si>
+  <si>
+    <t>Test0402202182205</t>
+  </si>
+  <si>
+    <t>6954</t>
+  </si>
+  <si>
+    <t>Test04052021102158</t>
+  </si>
+  <si>
+    <t>73-6127348</t>
+  </si>
+  <si>
+    <t>Test04052021102843</t>
+  </si>
+  <si>
+    <t>31383</t>
+  </si>
+  <si>
+    <t>Test04052021110139</t>
+  </si>
+  <si>
+    <t>50-5456221</t>
+  </si>
+  <si>
+    <t>Test04052021110749</t>
+  </si>
+  <si>
+    <t>33786</t>
+  </si>
+  <si>
+    <t>Test04052021113451</t>
+  </si>
+  <si>
+    <t>97-2591815</t>
+  </si>
+  <si>
+    <t>Test04052021114040</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Test04052021120851</t>
+  </si>
+  <si>
+    <t>65-0205374</t>
+  </si>
+  <si>
+    <t>Test04052021121500</t>
+  </si>
+  <si>
+    <t>76729</t>
+  </si>
+  <si>
+    <t>Test04052021122607</t>
+  </si>
+  <si>
+    <t>63-7271041</t>
+  </si>
+  <si>
+    <t>Test04052021123332</t>
+  </si>
+  <si>
+    <t>40341</t>
+  </si>
+  <si>
+    <t>Test04052021124712</t>
+  </si>
+  <si>
+    <t>91-3631122</t>
+  </si>
+  <si>
+    <t>Test04052021125442</t>
+  </si>
+  <si>
+    <t>75538</t>
+  </si>
+  <si>
+    <t>Test0405202120712</t>
+  </si>
+  <si>
+    <t>47-6092513</t>
+  </si>
+  <si>
+    <t>Test0405202121259</t>
+  </si>
+  <si>
+    <t>97221</t>
+  </si>
+  <si>
+    <t>Test0405202130728</t>
+  </si>
+  <si>
+    <t>25-112157_</t>
+  </si>
+  <si>
+    <t>Test0405202131330</t>
+  </si>
+  <si>
+    <t>25138</t>
+  </si>
+  <si>
+    <t>Test0405202132828</t>
+  </si>
+  <si>
+    <t>24-1650024</t>
+  </si>
+  <si>
+    <t>Test0405202133430</t>
+  </si>
+  <si>
+    <t>94436</t>
+  </si>
+  <si>
+    <t>Test0405202154542</t>
+  </si>
+  <si>
+    <t>69-5581777</t>
+  </si>
+  <si>
+    <t>Test0405202155236</t>
+  </si>
+  <si>
+    <t>66324</t>
+  </si>
+  <si>
+    <t>Test0406202162800</t>
+  </si>
+  <si>
+    <t>94-4217119</t>
+  </si>
+  <si>
+    <t>Test0406202163354</t>
+  </si>
+  <si>
+    <t>57497</t>
+  </si>
+  <si>
+    <t>Test0406202171905</t>
+  </si>
+  <si>
+    <t>50-0996456</t>
+  </si>
+  <si>
+    <t>Test0406202172534</t>
+  </si>
+  <si>
+    <t>4224</t>
+  </si>
+  <si>
+    <t>Test0406202175346</t>
+  </si>
+  <si>
+    <t>43-2210099</t>
+  </si>
+  <si>
+    <t>Test0406202175941</t>
+  </si>
+  <si>
+    <t>39336</t>
+  </si>
+  <si>
+    <t>Test0407202195054</t>
+  </si>
+  <si>
+    <t>30-7051963</t>
+  </si>
+  <si>
+    <t>Test0407202195650</t>
+  </si>
+  <si>
+    <t>69548</t>
+  </si>
+  <si>
+    <t>Test04072021120645</t>
+  </si>
+  <si>
+    <t>63-9719146</t>
+  </si>
+  <si>
+    <t>Test04072021121238</t>
+  </si>
+  <si>
+    <t>98162</t>
+  </si>
+  <si>
+    <t>Test04072021124023</t>
+  </si>
+  <si>
+    <t>91-7958099</t>
+  </si>
+  <si>
+    <t>Test04072021124618</t>
+  </si>
+  <si>
+    <t>32908</t>
+  </si>
+  <si>
+    <t>Test0407202113009</t>
+  </si>
+  <si>
+    <t>22-0879728</t>
+  </si>
+  <si>
+    <t>Test0407202113602</t>
+  </si>
+  <si>
+    <t>43056</t>
+  </si>
+  <si>
+    <t>Test0407202122300</t>
+  </si>
+  <si>
+    <t>54-1496475</t>
+  </si>
+  <si>
+    <t>Test0407202122851</t>
+  </si>
+  <si>
+    <t>71108</t>
+  </si>
+  <si>
+    <t>201205160</t>
+  </si>
+  <si>
+    <t>Test0407202135053</t>
+  </si>
+  <si>
+    <t>11-4509417</t>
+  </si>
+  <si>
+    <t>Test0407202135648</t>
+  </si>
+  <si>
+    <t>72457</t>
+  </si>
+  <si>
+    <t>Test0407202152721</t>
+  </si>
+  <si>
+    <t>42-7837647</t>
+  </si>
+  <si>
+    <t>Test0407202153319</t>
+  </si>
+  <si>
+    <t>35528</t>
+  </si>
+  <si>
+    <t>201205163</t>
+  </si>
+  <si>
+    <t>Test0407202175806</t>
+  </si>
+  <si>
+    <t>10-0029966</t>
+  </si>
+  <si>
+    <t>Test0407202180429</t>
+  </si>
+  <si>
+    <t>85753</t>
+  </si>
+  <si>
+    <t>Test0407202182056</t>
+  </si>
+  <si>
+    <t>90-3449362</t>
+  </si>
+  <si>
+    <t>Test0407202182652</t>
+  </si>
+  <si>
+    <t>3805</t>
+  </si>
+  <si>
+    <t>201205167</t>
+  </si>
+  <si>
+    <t>Test04082021100253</t>
+  </si>
+  <si>
+    <t>72-5390562</t>
+  </si>
+  <si>
+    <t>Test04082021100851</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>201205168</t>
+  </si>
+  <si>
+    <t>Test04082021103007</t>
+  </si>
+  <si>
+    <t>90-0231995</t>
+  </si>
+  <si>
+    <t>Test04082021103602</t>
+  </si>
+  <si>
+    <t>97812</t>
+  </si>
+  <si>
+    <t>201205169</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +3949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1950,15 +3978,15 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5">
@@ -1966,15 +3994,15 @@
         <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -1982,7 +4010,7 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>942</v>
       </c>
     </row>
     <row r="10">
@@ -2014,28 +4042,28 @@
         <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
         <v>131</v>
-      </c>
-      <c r="B14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="n">
-        <v>9.01864257E8</v>
+        <v>1.42597369E8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -2043,7 +4071,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -2051,38 +4079,38 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
         <v>136</v>
-      </c>
-      <c r="B19" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2095,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2112,7 +4140,7 @@
         <v>103</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2123,7 +4151,7 @@
         <v>123</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2134,7 +4162,7 @@
         <v>1234567891</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2142,10 +4170,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2153,10 +4181,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2164,10 +4192,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2175,10 +4203,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2189,7 +4217,7 @@
         <v>123456789</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
